--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/InsertingTables.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/InsertingTables.xlsx
@@ -21,39 +21,42 @@
     <x:t>From Strings</x:t>
   </x:si>
   <x:si>
+    <x:t>From Arrays</x:t>
+  </x:si>
+  <x:si>
     <x:t>String</x:t>
   </x:si>
   <x:si>
+    <x:t>Column1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Column2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Column3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Column4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Column5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Column6</x:t>
+  </x:si>
+  <x:si>
     <x:t>House</x:t>
   </x:si>
   <x:si>
     <x:t>Car</x:t>
   </x:si>
   <x:si>
-    <x:t>From Arrays</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Column1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Column2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Column3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Column4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Column5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Column6</x:t>
-  </x:si>
-  <x:si>
     <x:t>From DataTable</x:t>
   </x:si>
   <x:si>
+    <x:t>From Query</x:t>
+  </x:si>
+  <x:si>
     <x:t>Dosage</x:t>
   </x:si>
   <x:si>
@@ -66,24 +69,51 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
+    <x:t>House Street</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Age</x:t>
+  </x:si>
+  <x:si>
     <x:t>Indocin</x:t>
   </x:si>
   <x:si>
     <x:t>David</x:t>
   </x:si>
   <x:si>
+    <x:t>On Elm St.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>John</x:t>
+  </x:si>
+  <x:si>
     <x:t>Enebrel</x:t>
   </x:si>
   <x:si>
     <x:t>Sam</x:t>
   </x:si>
   <x:si>
+    <x:t>On 23rd St.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Luis</x:t>
+  </x:si>
+  <x:si>
     <x:t>Hydralazine</x:t>
   </x:si>
   <x:si>
     <x:t>Christoff</x:t>
   </x:si>
   <x:si>
+    <x:t>On 5th Ave.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Henry</x:t>
+  </x:si>
+  <x:si>
     <x:t>Combivent</x:t>
   </x:si>
   <x:si>
@@ -94,36 +124,6 @@
   </x:si>
   <x:si>
     <x:t>Melanie</x:t>
-  </x:si>
-  <x:si>
-    <x:t>From Query</x:t>
-  </x:si>
-  <x:si>
-    <x:t>House Street</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Age</x:t>
-  </x:si>
-  <x:si>
-    <x:t>On Elm St.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>John</x:t>
-  </x:si>
-  <x:si>
-    <x:t>On 23rd St.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Luis</x:t>
-  </x:si>
-  <x:si>
-    <x:t>On 5th Ave.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Henry</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -190,7 +190,7 @@
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -203,7 +203,7 @@
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -561,9 +561,7 @@
     <x:col min="9" max="16384" width="9.850625" style="0" customWidth="1"/>
     <x:col min="1" max="1" width="13.98" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="13.41" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="10.84" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="13.129999999999999" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="10.84" style="0" customWidth="1"/>
+    <x:col min="3" max="5" width="10.84" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="14.41" style="0" customWidth="1"/>
     <x:col min="7" max="8" width="10.84" style="0" customWidth="1"/>
   </x:cols>
@@ -573,7 +571,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D1" s="1" t="s"/>
       <x:c r="E1" s="1" t="s"/>
@@ -583,30 +581,30 @@
     </x:row>
     <x:row r="2" spans="1:8">
       <x:c r="A2" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="s">
+      <x:c r="F2" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="E2" s="0" t="s">
+      <x:c r="G2" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="F2" s="0" t="s">
+      <x:c r="H2" s="0" t="s">
         <x:v>8</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="H2" s="0" t="s">
-        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
       <x:c r="A3" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
         <x:v>1</x:v>
@@ -620,7 +618,7 @@
     </x:row>
     <x:row r="4" spans="1:8">
       <x:c r="A4" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
         <x:v>1</x:v>
@@ -654,32 +652,32 @@
       <x:c r="C7" s="1" t="s"/>
       <x:c r="D7" s="1" t="s"/>
       <x:c r="F7" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G7" s="1" t="s"/>
       <x:c r="H7" s="1" t="s"/>
     </x:row>
     <x:row r="8" spans="1:8">
       <x:c r="A8" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H8" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8">
@@ -687,19 +685,19 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D9" s="2">
-        <x:v>40720.2728472222</x:v>
+        <x:v>36526</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H9" s="0" t="n">
         <x:v>30</x:v>
@@ -710,19 +708,19 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D10" s="2">
-        <x:v>40720.2728472222</x:v>
+        <x:v>36527</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H10" s="0" t="n">
         <x:v>21</x:v>
@@ -733,19 +731,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D11" s="2">
-        <x:v>40720.2728472222</x:v>
+        <x:v>36528</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H11" s="0" t="n">
         <x:v>45</x:v>
@@ -756,13 +754,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D12" s="2">
-        <x:v>40720.2728472222</x:v>
+        <x:v>36529</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:8">
@@ -770,13 +768,13 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D13" s="2">
-        <x:v>40720.2728472222</x:v>
+        <x:v>36530</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/InsertingTables.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/InsertingTables.xlsx
@@ -556,14 +556,13 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="9" max="16384" width="9.850625" style="0" customWidth="1"/>
-    <x:col min="1" max="1" width="13.98" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="13.41" style="0" customWidth="1"/>
-    <x:col min="3" max="5" width="10.84" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="14.41" style="0" customWidth="1"/>
-    <x:col min="7" max="8" width="10.84" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="13.980625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="13.410625" style="0" customWidth="1"/>
+    <x:col min="3" max="5" width="10.840625000000001" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="14.410625" style="0" customWidth="1"/>
+    <x:col min="7" max="8" width="10.840625000000001" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:8">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/InsertingTables.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/InsertingTables.xlsx
@@ -183,7 +183,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="3">
+  <x:cellStyleXfs count="6">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -193,8 +193,17 @@
     <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="3">
+  <x:cellXfs count="5">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -205,6 +214,14 @@
     </x:xf>
     <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -214,7 +231,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:A4" totalsRowShown="0">
   <x:autoFilter ref="A2:A4"/>
   <x:tableColumns count="1">
@@ -224,7 +241,7 @@
 </x:table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="C2:H5" totalsRowShown="0">
   <x:autoFilter ref="C2:H5"/>
   <x:tableColumns count="6">
@@ -239,7 +256,7 @@
 </x:table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A8:D13" totalsRowShown="0">
   <x:autoFilter ref="A8:D13"/>
   <x:tableColumns count="4">
@@ -252,7 +269,7 @@
 </x:table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="F8:H11" totalsRowShown="0">
   <x:autoFilter ref="F8:H11"/>
   <x:tableColumns count="3">
@@ -579,67 +596,67 @@
       <x:c r="H1" s="1" t="s"/>
     </x:row>
     <x:row r="2" spans="1:8">
-      <x:c r="A2" s="0" t="s">
+      <x:c r="A2" s="3" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="s">
+      <x:c r="C2" s="3" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="s">
+      <x:c r="D2" s="3" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="E2" s="0" t="s">
+      <x:c r="E2" s="3" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="F2" s="0" t="s">
+      <x:c r="F2" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="G2" s="0" t="s">
+      <x:c r="G2" s="3" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="H2" s="0" t="s">
+      <x:c r="H2" s="3" t="s">
         <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
-      <x:c r="A3" s="0" t="s">
+      <x:c r="A3" s="3" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="n">
+      <x:c r="C3" s="3" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D3" s="0" t="n">
+      <x:c r="D3" s="3" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="E3" s="0" t="n">
+      <x:c r="E3" s="3" t="n">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
-      <x:c r="A4" s="0" t="s">
+      <x:c r="A4" s="3" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="n">
+      <x:c r="C4" s="3" t="n">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
-      <x:c r="C5" s="0" t="n">
+      <x:c r="C5" s="3" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D5" s="0" t="n">
+      <x:c r="D5" s="3" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="E5" s="0" t="n">
+      <x:c r="E5" s="3" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="F5" s="0" t="n">
+      <x:c r="F5" s="3" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="G5" s="0" t="n">
+      <x:c r="G5" s="3" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="H5" s="0" t="n">
+      <x:c r="H5" s="3" t="n">
         <x:v>6</x:v>
       </x:c>
     </x:row>
@@ -657,122 +674,122 @@
       <x:c r="H7" s="1" t="s"/>
     </x:row>
     <x:row r="8" spans="1:8">
-      <x:c r="A8" s="0" t="s">
+      <x:c r="A8" s="3" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="B8" s="0" t="s">
+      <x:c r="B8" s="3" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="C8" s="0" t="s">
+      <x:c r="C8" s="3" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="D8" s="0" t="s">
+      <x:c r="D8" s="3" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="F8" s="0" t="s">
+      <x:c r="F8" s="3" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="G8" s="0" t="s">
+      <x:c r="G8" s="3" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="H8" s="0" t="s">
+      <x:c r="H8" s="3" t="s">
         <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8">
-      <x:c r="A9" s="0" t="n">
+      <x:c r="A9" s="3" t="n">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="B9" s="0" t="s">
+      <x:c r="B9" s="3" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="C9" s="0" t="s">
+      <x:c r="C9" s="3" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="D9" s="2">
+      <x:c r="D9" s="4">
         <x:v>36526</x:v>
       </x:c>
-      <x:c r="F9" s="0" t="s">
+      <x:c r="F9" s="3" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="G9" s="0" t="s">
+      <x:c r="G9" s="3" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="H9" s="0" t="n">
+      <x:c r="H9" s="3" t="n">
         <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
-      <x:c r="A10" s="0" t="n">
+      <x:c r="A10" s="3" t="n">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="B10" s="0" t="s">
+      <x:c r="B10" s="3" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C10" s="0" t="s">
+      <x:c r="C10" s="3" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="D10" s="2">
+      <x:c r="D10" s="4">
         <x:v>36527</x:v>
       </x:c>
-      <x:c r="F10" s="0" t="s">
+      <x:c r="F10" s="3" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="G10" s="0" t="s">
+      <x:c r="G10" s="3" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="H10" s="0" t="n">
+      <x:c r="H10" s="3" t="n">
         <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:8">
-      <x:c r="A11" s="0" t="n">
+      <x:c r="A11" s="3" t="n">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B11" s="0" t="s">
+      <x:c r="B11" s="3" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="C11" s="0" t="s">
+      <x:c r="C11" s="3" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="D11" s="2">
+      <x:c r="D11" s="4">
         <x:v>36528</x:v>
       </x:c>
-      <x:c r="F11" s="0" t="s">
+      <x:c r="F11" s="3" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="G11" s="0" t="s">
+      <x:c r="G11" s="3" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="H11" s="0" t="n">
+      <x:c r="H11" s="3" t="n">
         <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:8">
-      <x:c r="A12" s="0" t="n">
+      <x:c r="A12" s="3" t="n">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="B12" s="0" t="s">
+      <x:c r="B12" s="3" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="C12" s="0" t="s">
+      <x:c r="C12" s="3" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="D12" s="2">
+      <x:c r="D12" s="4">
         <x:v>36529</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:8">
-      <x:c r="A13" s="0" t="n">
+      <x:c r="A13" s="3" t="n">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="B13" s="0" t="s">
+      <x:c r="B13" s="3" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="C13" s="0" t="s">
+      <x:c r="C13" s="3" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="D13" s="2">
+      <x:c r="D13" s="4">
         <x:v>36530</x:v>
       </x:c>
     </x:row>
@@ -794,10 +811,10 @@
     <x:firstFooter/>
   </x:headerFooter>
   <x:tableParts count="4">
+    <x:tablePart r:id="rId1"/>
     <x:tablePart r:id="rId5"/>
     <x:tablePart r:id="rId6"/>
     <x:tablePart r:id="rId7"/>
-    <x:tablePart r:id="rId8"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/InsertingTables.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/InsertingTables.xlsx
@@ -183,7 +183,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="6">
+  <x:cellStyleXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -196,14 +196,8 @@
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="5">
+  <x:cellXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -214,14 +208,6 @@
     </x:xf>
     <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -596,67 +582,67 @@
       <x:c r="H1" s="1" t="s"/>
     </x:row>
     <x:row r="2" spans="1:8">
-      <x:c r="A2" s="3" t="s">
+      <x:c r="A2" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C2" s="3" t="s">
+      <x:c r="C2" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="D2" s="3" t="s">
+      <x:c r="D2" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="E2" s="3" t="s">
+      <x:c r="E2" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="F2" s="3" t="s">
+      <x:c r="F2" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="G2" s="3" t="s">
+      <x:c r="G2" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="H2" s="3" t="s">
+      <x:c r="H2" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
-      <x:c r="A3" s="3" t="s">
+      <x:c r="A3" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C3" s="3" t="n">
+      <x:c r="C3" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D3" s="3" t="n">
+      <x:c r="D3" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="E3" s="3" t="n">
+      <x:c r="E3" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
-      <x:c r="A4" s="3" t="s">
+      <x:c r="A4" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C4" s="3" t="n">
+      <x:c r="C4" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
-      <x:c r="C5" s="3" t="n">
+      <x:c r="C5" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D5" s="3" t="n">
+      <x:c r="D5" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="E5" s="3" t="n">
+      <x:c r="E5" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="F5" s="3" t="n">
+      <x:c r="F5" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="G5" s="3" t="n">
+      <x:c r="G5" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="H5" s="3" t="n">
+      <x:c r="H5" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
     </x:row>
@@ -674,122 +660,122 @@
       <x:c r="H7" s="1" t="s"/>
     </x:row>
     <x:row r="8" spans="1:8">
-      <x:c r="A8" s="3" t="s">
+      <x:c r="A8" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="B8" s="3" t="s">
+      <x:c r="B8" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="C8" s="3" t="s">
+      <x:c r="C8" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="D8" s="3" t="s">
+      <x:c r="D8" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="F8" s="3" t="s">
+      <x:c r="F8" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="G8" s="3" t="s">
+      <x:c r="G8" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="H8" s="3" t="s">
+      <x:c r="H8" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8">
-      <x:c r="A9" s="3" t="n">
+      <x:c r="A9" s="0" t="n">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="B9" s="3" t="s">
+      <x:c r="B9" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="C9" s="3" t="s">
+      <x:c r="C9" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="D9" s="4">
+      <x:c r="D9" s="2">
         <x:v>36526</x:v>
       </x:c>
-      <x:c r="F9" s="3" t="s">
+      <x:c r="F9" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="G9" s="3" t="s">
+      <x:c r="G9" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="H9" s="3" t="n">
+      <x:c r="H9" s="0" t="n">
         <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
-      <x:c r="A10" s="3" t="n">
+      <x:c r="A10" s="0" t="n">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="B10" s="3" t="s">
+      <x:c r="B10" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C10" s="3" t="s">
+      <x:c r="C10" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="D10" s="4">
+      <x:c r="D10" s="2">
         <x:v>36527</x:v>
       </x:c>
-      <x:c r="F10" s="3" t="s">
+      <x:c r="F10" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="G10" s="3" t="s">
+      <x:c r="G10" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="H10" s="3" t="n">
+      <x:c r="H10" s="0" t="n">
         <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:8">
-      <x:c r="A11" s="3" t="n">
+      <x:c r="A11" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B11" s="3" t="s">
+      <x:c r="B11" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="C11" s="3" t="s">
+      <x:c r="C11" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="D11" s="4">
+      <x:c r="D11" s="2">
         <x:v>36528</x:v>
       </x:c>
-      <x:c r="F11" s="3" t="s">
+      <x:c r="F11" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="G11" s="3" t="s">
+      <x:c r="G11" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="H11" s="3" t="n">
+      <x:c r="H11" s="0" t="n">
         <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:8">
-      <x:c r="A12" s="3" t="n">
+      <x:c r="A12" s="0" t="n">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="B12" s="3" t="s">
+      <x:c r="B12" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="C12" s="3" t="s">
+      <x:c r="C12" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="D12" s="4">
+      <x:c r="D12" s="2">
         <x:v>36529</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:8">
-      <x:c r="A13" s="3" t="n">
+      <x:c r="A13" s="0" t="n">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="B13" s="3" t="s">
+      <x:c r="B13" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="C13" s="3" t="s">
+      <x:c r="C13" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="D13" s="4">
+      <x:c r="D13" s="2">
         <x:v>36530</x:v>
       </x:c>
     </x:row>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/InsertingTables.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/InsertingTables.xlsx
@@ -788,14 +788,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="4">
     <x:tablePart r:id="rId1"/>
     <x:tablePart r:id="rId5"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/InsertingTables.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/InsertingTables.xlsx
@@ -561,11 +561,12 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="13.980625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="13.410625" style="0" customWidth="1"/>
-    <x:col min="3" max="5" width="10.840625000000001" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="14.410625" style="0" customWidth="1"/>
-    <x:col min="7" max="8" width="10.840625000000001" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="14.1090625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="13.1090625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="11.1090625" style="0" customWidth="1"/>
+    <x:col min="4" max="5" width="9.1090625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="14.1090625" style="0" customWidth="1"/>
+    <x:col min="7" max="8" width="9.1090625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:8">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/InsertingTables.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/InsertingTables.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <x:bookViews>
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/InsertingTables.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/InsertingTables.xlsx
@@ -561,12 +561,12 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="14.1090625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="13.1090625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="11.1090625" style="0" customWidth="1"/>
-    <x:col min="4" max="5" width="9.1090625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="14.1090625" style="0" customWidth="1"/>
-    <x:col min="7" max="8" width="9.1090625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="14.085625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="13.10125" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="11.10125" style="0" customWidth="1"/>
+    <x:col min="4" max="5" width="9.10125" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="14.10125" style="0" customWidth="1"/>
+    <x:col min="7" max="8" width="9.10125" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:8">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/InsertingTables.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/InsertingTables.xlsx
@@ -561,12 +561,11 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="14.085625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="13.10125" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="11.10125" style="0" customWidth="1"/>
-    <x:col min="4" max="5" width="9.10125" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="14.10125" style="0" customWidth="1"/>
-    <x:col min="7" max="8" width="9.10125" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="13.980625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="13.410625" style="0" customWidth="1"/>
+    <x:col min="3" max="5" width="10.840625000000001" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="14.410625" style="0" customWidth="1"/>
+    <x:col min="7" max="8" width="10.840625000000001" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:8">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/InsertingTables.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/InsertingTables.xlsx
@@ -790,10 +790,10 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="4">
-    <x:tablePart r:id="rId1"/>
     <x:tablePart r:id="rId5"/>
     <x:tablePart r:id="rId6"/>
     <x:tablePart r:id="rId7"/>
+    <x:tablePart r:id="rId8"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/InsertingTables.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/InsertingTables.xlsx
@@ -133,7 +133,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="2">
+  <x:fonts count="3">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -143,6 +143,13 @@
     </x:font>
     <x:font>
       <x:b/>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/InsertingTables.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/InsertingTables.xlsx
@@ -564,7 +564,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:H13"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/InsertingTables.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/InsertingTables.xlsx
@@ -568,11 +568,11 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="13.980625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="13.410625" style="0" customWidth="1"/>
-    <x:col min="3" max="5" width="10.840625000000001" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="14.410625" style="0" customWidth="1"/>
-    <x:col min="7" max="8" width="10.840625000000001" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="12.780625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="11.860625" style="0" customWidth="1"/>
+    <x:col min="3" max="5" width="9.480625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="12.870625" style="0" customWidth="1"/>
+    <x:col min="7" max="8" width="9.480625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:8">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/InsertingTables.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/InsertingTables.xlsx
@@ -191,29 +191,29 @@
     </x:border>
   </x:borders>
   <x:cellStyleXfs count="4">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="3">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
